--- a/ExcelDemo/RPADemo/bin/Debug/test.xlsx
+++ b/ExcelDemo/RPADemo/bin/Debug/test.xlsx
@@ -1,16 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="65416" yWindow="65416" windowWidth="29040" windowHeight="16440" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="162913"/>
-  <extLst>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -22,11 +23,9 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>二</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>三</t>
@@ -42,26 +41,22 @@
   </si>
   <si>
     <t>七</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>八</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>九</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>十</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,16 +65,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="等线"/>
       <family val="3"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -94,18 +93,112 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
+  <extLst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
@@ -378,16 +471,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0" topLeftCell="A1">
       <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="14.25">
       <c r="A1">
         <v>1</v>
       </c>
@@ -395,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" ht="14.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -403,7 +496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" ht="14.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -411,7 +504,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" ht="14.25">
       <c r="A4">
         <v>4</v>
       </c>
@@ -419,7 +512,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="14.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -427,7 +520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="14.25">
       <c r="A6">
         <v>6</v>
       </c>
@@ -435,7 +528,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" ht="14.25">
       <c r="A7">
         <v>7</v>
       </c>
@@ -443,7 +536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" ht="14.25">
       <c r="A8">
         <v>8</v>
       </c>
@@ -451,7 +544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" ht="14.25">
       <c r="A9">
         <v>9</v>
       </c>
@@ -459,7 +552,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" ht="14.25">
       <c r="A10">
         <v>10</v>
       </c>
@@ -468,8 +561,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup horizontalDpi="300" verticalDpi="300" orientation="portrait" paperSize="9" r:id="rId1"/>
 </worksheet>
 </file>